--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1814</v>
+        <v>1810.682651439943</v>
       </c>
       <c r="C2">
-        <v>1982</v>
+        <v>1984.399082413055</v>
       </c>
       <c r="D2">
-        <v>2106</v>
+        <v>2108.131502855095</v>
       </c>
       <c r="E2">
-        <v>2136</v>
+        <v>2136.069371440038</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1771</v>
+        <v>1768.334091166898</v>
       </c>
       <c r="C3">
-        <v>1960</v>
+        <v>1961.485732241424</v>
       </c>
       <c r="D3">
-        <v>2102</v>
+        <v>2100.219135539186</v>
       </c>
       <c r="E3">
-        <v>2131</v>
+        <v>2132.944830111488</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1780</v>
+        <v>1771.385937107427</v>
       </c>
       <c r="C4">
-        <v>1963</v>
+        <v>1962.522550761016</v>
       </c>
       <c r="D4">
-        <v>2095</v>
+        <v>2096.593753118568</v>
       </c>
       <c r="E4">
-        <v>2124</v>
+        <v>2127.424284502383</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1703</v>
+        <v>1696.724731045043</v>
       </c>
       <c r="C5">
-        <v>1928</v>
+        <v>1923.028305113323</v>
       </c>
       <c r="D5">
-        <v>2069</v>
+        <v>2070.329385050662</v>
       </c>
       <c r="E5">
-        <v>2116</v>
+        <v>2120.356950798305</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1254</v>
+        <v>1252.015568647364</v>
       </c>
       <c r="C6">
-        <v>1625</v>
+        <v>1625.470157090052</v>
       </c>
       <c r="D6">
-        <v>1894</v>
+        <v>1894.731092481184</v>
       </c>
       <c r="E6">
-        <v>2053</v>
+        <v>2056.101009838984</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1356</v>
+        <v>1349.580071416546</v>
       </c>
       <c r="C7">
-        <v>1685</v>
+        <v>1681.95337263134</v>
       </c>
       <c r="D7">
-        <v>1916</v>
+        <v>1916.80201782857</v>
       </c>
       <c r="E7">
-        <v>2067</v>
+        <v>2070.712256698685</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1350</v>
+        <v>1347.754846155285</v>
       </c>
       <c r="C8">
-        <v>1669</v>
+        <v>1665.712715699316</v>
       </c>
       <c r="D8">
-        <v>1898</v>
+        <v>1896.532347435891</v>
       </c>
       <c r="E8">
-        <v>2046</v>
+        <v>2049.817509468166</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1369</v>
+        <v>1364.57542459144</v>
       </c>
       <c r="C9">
-        <v>1690</v>
+        <v>1687.562082513365</v>
       </c>
       <c r="D9">
-        <v>1917</v>
+        <v>1920.750419483241</v>
       </c>
       <c r="E9">
-        <v>2069</v>
+        <v>2073.482490100606</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1673</v>
+        <v>1657.608033392178</v>
       </c>
       <c r="C10">
-        <v>1917</v>
+        <v>1909.025596153625</v>
       </c>
       <c r="D10">
-        <v>2063</v>
+        <v>2063.638446140928</v>
       </c>
       <c r="E10">
-        <v>2112</v>
+        <v>2114.98496527085</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1642</v>
+        <v>1635.170310488515</v>
       </c>
       <c r="C11">
-        <v>1893</v>
+        <v>1890.486000554413</v>
       </c>
       <c r="D11">
-        <v>2046</v>
+        <v>2045.065604917479</v>
       </c>
       <c r="E11">
-        <v>2099</v>
+        <v>2103.257864896071</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1263</v>
+        <v>1247.307099901423</v>
       </c>
       <c r="C12">
-        <v>1677</v>
+        <v>1669.150632374289</v>
       </c>
       <c r="D12">
-        <v>1950</v>
+        <v>1950.445220564697</v>
       </c>
       <c r="E12">
-        <v>2041</v>
+        <v>2043.878760777674</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1548</v>
+        <v>1529.951663943509</v>
       </c>
       <c r="C13">
-        <v>1846</v>
+        <v>1835.465197322763</v>
       </c>
       <c r="D13">
-        <v>2020</v>
+        <v>2019.552879454643</v>
       </c>
       <c r="E13">
-        <v>2085</v>
+        <v>2086.80489728298</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1810.682651439943</v>
+        <v>1756.621417788585</v>
       </c>
       <c r="C2">
-        <v>1984.399082413055</v>
+        <v>1947.198370555816</v>
       </c>
       <c r="D2">
-        <v>2108.131502855095</v>
+        <v>2083.124264583032</v>
       </c>
       <c r="E2">
-        <v>2136.069371440038</v>
+        <v>2117.822127068378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1768.334091166898</v>
+        <v>1758.728407197068</v>
       </c>
       <c r="C3">
-        <v>1961.485732241424</v>
+        <v>1951.750355279651</v>
       </c>
       <c r="D3">
-        <v>2100.219135539186</v>
+        <v>2088.988195104389</v>
       </c>
       <c r="E3">
-        <v>2132.944830111488</v>
+        <v>2120.873835504526</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1771.385937107427</v>
+        <v>1790.468620267036</v>
       </c>
       <c r="C4">
-        <v>1962.522550761016</v>
+        <v>1971.00519488374</v>
       </c>
       <c r="D4">
-        <v>2096.593753118568</v>
+        <v>2099.897451229905</v>
       </c>
       <c r="E4">
-        <v>2127.424284502383</v>
+        <v>2128.981365065217</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1696.724731045043</v>
+        <v>1733.335909486131</v>
       </c>
       <c r="C5">
-        <v>1923.028305113323</v>
+        <v>1935.555074137375</v>
       </c>
       <c r="D5">
-        <v>2070.329385050662</v>
+        <v>2081.325336738278</v>
       </c>
       <c r="E5">
-        <v>2120.356950798305</v>
+        <v>2127.444333499336</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1252.015568647364</v>
+        <v>1245.614113272291</v>
       </c>
       <c r="C6">
-        <v>1625.470157090052</v>
+        <v>1617.091840639814</v>
       </c>
       <c r="D6">
-        <v>1894.731092481184</v>
+        <v>1885.95393739311</v>
       </c>
       <c r="E6">
-        <v>2056.101009838984</v>
+        <v>2046.558729699035</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1349.580071416546</v>
+        <v>1334.0628601925</v>
       </c>
       <c r="C7">
-        <v>1681.95337263134</v>
+        <v>1664.660103553965</v>
       </c>
       <c r="D7">
-        <v>1916.80201782857</v>
+        <v>1900.907191806483</v>
       </c>
       <c r="E7">
-        <v>2070.712256698685</v>
+        <v>2056.138080628977</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1347.754846155285</v>
+        <v>1393.018358742374</v>
       </c>
       <c r="C8">
-        <v>1665.712715699316</v>
+        <v>1703.525300497556</v>
       </c>
       <c r="D8">
-        <v>1896.532347435891</v>
+        <v>1923.851290575834</v>
       </c>
       <c r="E8">
-        <v>2049.817509468166</v>
+        <v>2072.258329267117</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1364.57542459144</v>
+        <v>1322.400537924043</v>
       </c>
       <c r="C9">
-        <v>1687.562082513365</v>
+        <v>1654.469812483399</v>
       </c>
       <c r="D9">
-        <v>1920.750419483241</v>
+        <v>1895.872462272853</v>
       </c>
       <c r="E9">
-        <v>2073.482490100606</v>
+        <v>2049.954776445142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1657.608033392178</v>
+        <v>1526.255171077194</v>
       </c>
       <c r="C10">
-        <v>1909.025596153625</v>
+        <v>1812.359405258146</v>
       </c>
       <c r="D10">
-        <v>2063.638446140928</v>
+        <v>2002.829601901688</v>
       </c>
       <c r="E10">
-        <v>2114.98496527085</v>
+        <v>2078.008645113796</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1635.170310488515</v>
+        <v>1513.803673941397</v>
       </c>
       <c r="C11">
-        <v>1890.486000554413</v>
+        <v>1808.517869828042</v>
       </c>
       <c r="D11">
-        <v>2045.065604917479</v>
+        <v>1997.625812105908</v>
       </c>
       <c r="E11">
-        <v>2103.257864896071</v>
+        <v>2073.546192319888</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1247.307099901423</v>
+        <v>1135.666448234967</v>
       </c>
       <c r="C12">
-        <v>1669.150632374289</v>
+        <v>1562.647724764761</v>
       </c>
       <c r="D12">
-        <v>1950.445220564697</v>
+        <v>1878.318127134205</v>
       </c>
       <c r="E12">
-        <v>2043.878760777674</v>
+        <v>2000.095755995221</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1529.951663943509</v>
+        <v>1399.468921841119</v>
       </c>
       <c r="C13">
-        <v>1835.465197322763</v>
+        <v>1732.323497480271</v>
       </c>
       <c r="D13">
-        <v>2019.552879454643</v>
+        <v>1956.188134142214</v>
       </c>
       <c r="E13">
-        <v>2086.80489728298</v>
+        <v>2049.044195005043</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1756.621417788585</v>
+        <v>1757</v>
       </c>
       <c r="C2">
-        <v>1947.198370555816</v>
+        <v>1947</v>
       </c>
       <c r="D2">
-        <v>2083.124264583032</v>
+        <v>2083</v>
       </c>
       <c r="E2">
-        <v>2117.822127068378</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1758.728407197068</v>
+        <v>1759</v>
       </c>
       <c r="C3">
-        <v>1951.750355279651</v>
+        <v>1952</v>
       </c>
       <c r="D3">
-        <v>2088.988195104389</v>
+        <v>2089</v>
       </c>
       <c r="E3">
-        <v>2120.873835504526</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1790.468620267036</v>
+        <v>1790</v>
       </c>
       <c r="C4">
-        <v>1971.00519488374</v>
+        <v>1971</v>
       </c>
       <c r="D4">
-        <v>2099.897451229905</v>
+        <v>2100</v>
       </c>
       <c r="E4">
-        <v>2128.981365065217</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1733.335909486131</v>
+        <v>1733</v>
       </c>
       <c r="C5">
-        <v>1935.555074137375</v>
+        <v>1936</v>
       </c>
       <c r="D5">
-        <v>2081.325336738278</v>
+        <v>2081</v>
       </c>
       <c r="E5">
-        <v>2127.444333499336</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1245.614113272291</v>
+        <v>1246</v>
       </c>
       <c r="C6">
-        <v>1617.091840639814</v>
+        <v>1617</v>
       </c>
       <c r="D6">
-        <v>1885.95393739311</v>
+        <v>1886</v>
       </c>
       <c r="E6">
-        <v>2046.558729699035</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1334.0628601925</v>
+        <v>1334</v>
       </c>
       <c r="C7">
-        <v>1664.660103553965</v>
+        <v>1665</v>
       </c>
       <c r="D7">
-        <v>1900.907191806483</v>
+        <v>1901</v>
       </c>
       <c r="E7">
-        <v>2056.138080628977</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1393.018358742374</v>
+        <v>1393</v>
       </c>
       <c r="C8">
-        <v>1703.525300497556</v>
+        <v>1704</v>
       </c>
       <c r="D8">
-        <v>1923.851290575834</v>
+        <v>1924</v>
       </c>
       <c r="E8">
-        <v>2072.258329267117</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1322.400537924043</v>
+        <v>1322</v>
       </c>
       <c r="C9">
-        <v>1654.469812483399</v>
+        <v>1654</v>
       </c>
       <c r="D9">
-        <v>1895.872462272853</v>
+        <v>1896</v>
       </c>
       <c r="E9">
-        <v>2049.954776445142</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1526.255171077194</v>
+        <v>1526</v>
       </c>
       <c r="C10">
-        <v>1812.359405258146</v>
+        <v>1812</v>
       </c>
       <c r="D10">
-        <v>2002.829601901688</v>
+        <v>2003</v>
       </c>
       <c r="E10">
-        <v>2078.008645113796</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1513.803673941397</v>
+        <v>1514</v>
       </c>
       <c r="C11">
-        <v>1808.517869828042</v>
+        <v>1809</v>
       </c>
       <c r="D11">
-        <v>1997.625812105908</v>
+        <v>1998</v>
       </c>
       <c r="E11">
-        <v>2073.546192319888</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1135.666448234967</v>
+        <v>1136</v>
       </c>
       <c r="C12">
-        <v>1562.647724764761</v>
+        <v>1563</v>
       </c>
       <c r="D12">
-        <v>1878.318127134205</v>
+        <v>1878</v>
       </c>
       <c r="E12">
-        <v>2000.095755995221</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1399.468921841119</v>
+        <v>1399</v>
       </c>
       <c r="C13">
-        <v>1732.323497480271</v>
+        <v>1732</v>
       </c>
       <c r="D13">
-        <v>1956.188134142214</v>
+        <v>1956</v>
       </c>
       <c r="E13">
-        <v>2049.044195005043</v>
+        <v>2049</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto_OV.xlsx
@@ -428,7 +428,7 @@
         <v>1971.00519488374</v>
       </c>
       <c r="D4">
-        <v>2099.897451229905</v>
+        <v>2099.897451229906</v>
       </c>
       <c r="E4">
         <v>2128.981365065217</v>
@@ -482,7 +482,7 @@
         <v>1900.907191806483</v>
       </c>
       <c r="E7">
-        <v>2056.138080628977</v>
+        <v>2056.138080628976</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -584,7 +584,7 @@
         <v>1956.188134142214</v>
       </c>
       <c r="E13">
-        <v>2049.044195005043</v>
+        <v>2049.044195005042</v>
       </c>
     </row>
   </sheetData>
